--- a/Fix/fix cur. 19.xlsx
+++ b/Fix/fix cur. 19.xlsx
@@ -43,9 +43,6 @@
     <t>ax</t>
   </si>
   <si>
-    <t>ib</t>
-  </si>
-  <si>
     <t>mature</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>24106000098528</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -429,9 +429,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -806,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -848,13 +845,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
@@ -902,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>7</v>
@@ -919,7 +916,7 @@
         <v>8062.666666666667</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="43"/>
@@ -962,7 +959,7 @@
         <v>3442</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="11"/>
@@ -1003,7 +1000,7 @@
         <v>1209</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="56"/>
@@ -1072,7 +1069,7 @@
         <v>10215</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="24"/>
@@ -1113,7 +1110,7 @@
         <v>4830</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="11"/>
@@ -1154,7 +1151,7 @@
         <v>3425</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="11"/>
@@ -1186,16 +1183,16 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="21">
-        <v>41818</v>
+        <v>41816</v>
       </c>
       <c r="H10" s="21">
-        <v>42549</v>
-      </c>
-      <c r="I10" s="60">
-        <v>2200</v>
+        <v>42547</v>
+      </c>
+      <c r="I10" s="30">
+        <v>2309</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="11"/>
@@ -1246,13 +1243,13 @@
         <v>9.6</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="15">
@@ -1265,7 +1262,7 @@
         <v>3175</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="11"/>
@@ -1287,13 +1284,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="15">
@@ -1306,7 +1303,7 @@
         <v>10125</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="11"/>
@@ -1328,13 +1325,13 @@
         <v>9.6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="15">
@@ -1347,7 +1344,7 @@
         <v>3175</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="11"/>
@@ -1404,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="15">
@@ -1417,7 +1414,7 @@
         <v>3353</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="11"/>
@@ -1445,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="15">
@@ -1458,7 +1455,7 @@
         <v>1871</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="11"/>
@@ -1480,13 +1477,13 @@
         <v>9.43</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="15">
@@ -1499,7 +1496,7 @@
         <v>2322</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="11"/>
@@ -1521,13 +1518,13 @@
         <v>9.43</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="15">
@@ -1540,7 +1537,7 @@
         <v>9531</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11"/>
@@ -1562,13 +1559,13 @@
         <v>9.43</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="15">
@@ -1581,7 +1578,7 @@
         <v>2843</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="11"/>
@@ -1638,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="15">
@@ -1651,7 +1648,7 @@
         <v>2000</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="11"/>
@@ -1673,13 +1670,13 @@
         <v>9.75</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="5">
@@ -1692,7 +1689,7 @@
         <v>3169</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
@@ -1720,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="5">
@@ -1733,7 +1730,7 @@
         <v>2803</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
@@ -1761,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="5">
@@ -1774,7 +1771,7 @@
         <v>4672</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
@@ -1802,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="29">
@@ -1815,7 +1812,7 @@
         <v>2559</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K26" s="28"/>
       <c r="L26" s="32"/>
@@ -1843,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="5">
@@ -1856,7 +1853,7 @@
         <v>3656</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="4"/>
@@ -1881,10 +1878,10 @@
         <v>60</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="45"/>
       <c r="G28" s="46">
@@ -1898,7 +1895,7 @@
         <v>375</v>
       </c>
       <c r="J28" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" s="45"/>
       <c r="L28" s="48"/>
@@ -1966,7 +1963,7 @@
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1">
       <c r="A31" s="51">
-        <v>41844</v>
+        <v>41849</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3"/>
@@ -1980,7 +1977,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="16">
         <f>SUM(I3:I27)</f>
-        <v>88637.666666666672</v>
+        <v>88746.666666666672</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>3</v>
@@ -2033,7 +2030,7 @@
         <v>17336</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
@@ -2082,7 +2079,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="17">
         <f>I31+I33</f>
-        <v>105973.66666666667</v>
+        <v>106082.66666666667</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2165,7 +2162,7 @@
     </row>
     <row r="39" spans="1:21" ht="12.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4">
         <v>250000</v>
@@ -2196,7 +2193,7 @@
     </row>
     <row r="40" spans="1:21" ht="12.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4">
         <v>250000</v>
@@ -2227,19 +2224,19 @@
     </row>
     <row r="41" spans="1:21" ht="12.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4">
         <v>250000</v>
       </c>
       <c r="C41" s="4">
-        <f>(29597 + 6488) + (3175 * 2 + 1258) + (3175 * 12) + (5354 * 3 + 1040) + (6075 + 10125 * 11)</f>
-        <v>216345</v>
+        <f>(29597 + 6488) + (3175 * 2 + 1258) + (3175 * 12) + (5354 * 3 + 1040) + (6075 + 10125 * 11) + (1331 + 3175 * 8)</f>
+        <v>243076</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4">
         <f t="shared" ref="E41:E43" si="0">B41-C41</f>
-        <v>33655</v>
+        <v>6924</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41">
@@ -2255,7 +2252,7 @@
       </c>
       <c r="J41" s="50">
         <f>C41+I41</f>
-        <v>246345</v>
+        <v>273076</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
@@ -2271,19 +2268,19 @@
     </row>
     <row r="42" spans="1:21" ht="12.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4">
         <v>250000</v>
       </c>
       <c r="C42" s="4">
-        <f>(4030 * 3) + (3425 * 9) + (10215 * 12) + (4830 * 12) + 567</f>
-        <v>224022</v>
+        <f>(4030 * 3) + (3425 * 9) + (10215 * 12) + (4830 * 12) + 567 + (2309 * 9)</f>
+        <v>244803</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4">
-        <f t="shared" si="0"/>
-        <v>25978</v>
+        <f>B42-C42</f>
+        <v>5197</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42">
@@ -2299,7 +2296,7 @@
       </c>
       <c r="J42" s="50">
         <f>C42+I42</f>
-        <v>245397</v>
+        <v>266178</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="4"/>
@@ -2315,7 +2312,7 @@
     </row>
     <row r="43" spans="1:21" ht="12.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4">
         <v>250000</v>

--- a/Fix/fix cur. 19.xlsx
+++ b/Fix/fix cur. 19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>amt</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>34047998546</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +259,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -266,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -431,6 +443,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U107"/>
+  <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -946,9 +974,7 @@
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="59">
-        <v>4.5</v>
-      </c>
+      <c r="F4" s="59"/>
       <c r="G4" s="15">
         <v>41713</v>
       </c>
@@ -1014,125 +1040,125 @@
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
     </row>
-    <row r="6" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <f>SUM(A3:A5)</f>
-        <v>16.75</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
-      <c r="K6" s="8">
-        <f>SUM(I3:I5)</f>
-        <v>12713.666666666668</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" s="25" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="22">
+    <row r="6" spans="1:21" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="60">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B6" s="60">
+        <v>6.5</v>
+      </c>
+      <c r="C6" s="60">
+        <v>181</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61">
+        <v>41867</v>
+      </c>
+      <c r="H6" s="61">
+        <v>42048</v>
+      </c>
+      <c r="I6" s="62">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="60"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+    </row>
+    <row r="7" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <f>SUM(A3:A6)</f>
+        <v>21.85</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="8">
+        <f>SUM(I3:I6)</f>
+        <v>13713.666666666668</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" s="25" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="22">
         <v>12.3</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B8" s="22">
         <v>10.050000000000001</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C8" s="22">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="26">
+      <c r="F8" s="22"/>
+      <c r="G8" s="26">
         <v>41304</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H8" s="26">
         <v>42399</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I8" s="27">
         <v>10215</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-    </row>
-    <row r="8" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="9">
-        <v>6.15</v>
-      </c>
-      <c r="B8" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="C8" s="9">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="21">
-        <v>41480</v>
-      </c>
-      <c r="H8" s="21">
-        <v>42210</v>
-      </c>
-      <c r="I8" s="30">
-        <v>4830</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="9">
-        <v>4.25</v>
+        <v>6.15</v>
       </c>
       <c r="B9" s="9">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="C9" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>6</v>
@@ -1142,16 +1168,16 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="21">
-        <v>41776</v>
+        <v>41480</v>
       </c>
       <c r="H9" s="21">
-        <v>42141</v>
+        <v>42210</v>
       </c>
       <c r="I9" s="30">
-        <v>3425</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>38</v>
+        <v>4830</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="11"/>
@@ -1167,13 +1193,13 @@
     </row>
     <row r="10" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="9">
-        <v>2.85</v>
+        <v>4.25</v>
       </c>
       <c r="B10" s="9">
-        <v>9.8000000000000007</v>
+        <v>9.75</v>
       </c>
       <c r="C10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>6</v>
@@ -1183,16 +1209,16 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="21">
-        <v>41816</v>
+        <v>41776</v>
       </c>
       <c r="H10" s="21">
-        <v>42547</v>
+        <v>42141</v>
       </c>
       <c r="I10" s="30">
-        <v>2309</v>
+        <v>3425</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="11"/>
@@ -1206,85 +1232,85 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <f>SUM(A7:A10)</f>
+    <row r="11" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="9">
+        <v>2.85</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C11" s="9">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="21">
+        <v>41816</v>
+      </c>
+      <c r="H11" s="21">
+        <v>42547</v>
+      </c>
+      <c r="I11" s="30">
+        <v>2309</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <f>SUM(A8:A11)</f>
         <v>25.550000000000004</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="8">
-        <f>SUM(I7:I8)</f>
-        <v>15045</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="9">
-        <v>4</v>
-      </c>
-      <c r="B12" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="15">
-        <v>41675</v>
-      </c>
-      <c r="H12" s="15">
-        <v>42171</v>
-      </c>
-      <c r="I12" s="35">
-        <v>3175</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="8">
+        <f>SUM(I8:I11)</f>
+        <v>20779</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="9">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="9">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>9.6</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
@@ -1294,16 +1320,16 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="15">
-        <v>41741</v>
+        <v>41675</v>
       </c>
       <c r="H13" s="15">
-        <v>42241</v>
-      </c>
-      <c r="I13" s="19">
-        <v>10125</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>35</v>
+        <v>42171</v>
+      </c>
+      <c r="I13" s="35">
+        <v>3175</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="11"/>
@@ -1319,10 +1345,10 @@
     </row>
     <row r="14" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="9">
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="B14" s="9">
-        <v>9.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
@@ -1335,16 +1361,16 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="15">
-        <v>41838</v>
+        <v>41741</v>
       </c>
       <c r="H14" s="15">
-        <v>42203</v>
+        <v>42241</v>
       </c>
       <c r="I14" s="19">
-        <v>3175</v>
+        <v>10125</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="11"/>
@@ -1358,79 +1384,79 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <f>SUM(A12:A14)</f>
+    <row r="15" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A15" s="9">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="15">
+        <v>41838</v>
+      </c>
+      <c r="H15" s="15">
+        <v>42203</v>
+      </c>
+      <c r="I15" s="19">
+        <v>3175</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <f>SUM(A13:A15)</f>
         <v>20.5</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="8" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="9">
-        <v>4.3</v>
-      </c>
-      <c r="B16" s="9">
-        <v>9.18</v>
-      </c>
-      <c r="C16" s="9">
-        <v>24</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="15">
-        <v>41313</v>
-      </c>
-      <c r="H16" s="15">
-        <v>42043</v>
-      </c>
-      <c r="I16" s="19">
-        <v>3353</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="8">
+        <f>SUM(I13:I15)</f>
+        <v>16475</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="9">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="B17" s="9">
         <v>9.18</v>
@@ -1446,16 +1472,16 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="15">
-        <v>41442</v>
+        <v>41313</v>
       </c>
       <c r="H17" s="15">
-        <v>42172</v>
+        <v>42043</v>
       </c>
       <c r="I17" s="19">
-        <v>1871</v>
+        <v>3353</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="11"/>
@@ -1471,13 +1497,13 @@
     </row>
     <row r="18" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A18" s="9">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="B18" s="9">
-        <v>9.43</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>21</v>
+        <v>9.18</v>
+      </c>
+      <c r="C18" s="9">
+        <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>6</v>
@@ -1487,16 +1513,16 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="15">
-        <v>41589</v>
+        <v>41442</v>
       </c>
       <c r="H18" s="15">
-        <v>41955</v>
+        <v>42172</v>
       </c>
       <c r="I18" s="19">
-        <v>2322</v>
+        <v>1871</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="11"/>
@@ -1512,7 +1538,7 @@
     </row>
     <row r="19" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="9">
-        <v>11.9</v>
+        <v>2.9</v>
       </c>
       <c r="B19" s="9">
         <v>9.43</v>
@@ -1528,16 +1554,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="15">
-        <v>41673</v>
+        <v>41589</v>
       </c>
       <c r="H19" s="15">
-        <v>42039</v>
+        <v>41955</v>
       </c>
       <c r="I19" s="19">
-        <v>9531</v>
+        <v>2322</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11"/>
@@ -1553,7 +1579,7 @@
     </row>
     <row r="20" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="9">
-        <v>3.55</v>
+        <v>11.9</v>
       </c>
       <c r="B20" s="9">
         <v>9.43</v>
@@ -1569,16 +1595,16 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="15">
-        <v>41761</v>
+        <v>41673</v>
       </c>
       <c r="H20" s="15">
-        <v>42127</v>
-      </c>
-      <c r="I20" s="38">
-        <v>2843</v>
+        <v>42039</v>
+      </c>
+      <c r="I20" s="19">
+        <v>9531</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="11"/>
@@ -1592,126 +1618,126 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
-        <f>SUM(A16:A20)</f>
+    <row r="21" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="9">
+        <v>3.55</v>
+      </c>
+      <c r="B21" s="9">
+        <v>9.43</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="15">
+        <v>41761</v>
+      </c>
+      <c r="H21" s="15">
+        <v>42127</v>
+      </c>
+      <c r="I21" s="38">
+        <v>2843</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+    </row>
+    <row r="22" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <f>SUM(A17:A21)</f>
         <v>25.05</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="8">
-        <f>SUM(I16:I17)</f>
-        <v>5224</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="9">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="8">
+        <f>SUM(I17:I21)</f>
+        <v>19920</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" s="12" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A23" s="9">
         <v>2.4</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C23" s="9">
         <v>2</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="15">
+      <c r="F23" s="9"/>
+      <c r="G23" s="15">
         <v>41637</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="15">
         <v>42367</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I23" s="19">
         <v>2000</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-    </row>
-    <row r="23" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A23" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="B23" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5">
-        <v>41405</v>
-      </c>
-      <c r="H23" s="5">
-        <v>42105</v>
-      </c>
-      <c r="I23" s="19">
-        <v>3169</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
     </row>
     <row r="24" spans="1:21" ht="12.75" customHeight="1">
       <c r="A24" s="3">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="B24" s="3">
         <v>9.75</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>6</v>
@@ -1721,16 +1747,16 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="5">
-        <v>41429</v>
+        <v>41405</v>
       </c>
       <c r="H24" s="5">
-        <v>42159</v>
+        <v>42105</v>
       </c>
       <c r="I24" s="19">
-        <v>2803</v>
+        <v>3169</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
@@ -1746,7 +1772,7 @@
     </row>
     <row r="25" spans="1:21" ht="12.75" customHeight="1">
       <c r="A25" s="3">
-        <v>5.75</v>
+        <v>3.45</v>
       </c>
       <c r="B25" s="3">
         <v>9.75</v>
@@ -1762,16 +1788,16 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="5">
-        <v>41520</v>
+        <v>41429</v>
       </c>
       <c r="H25" s="5">
-        <v>42250</v>
+        <v>42159</v>
       </c>
       <c r="I25" s="19">
-        <v>4672</v>
+        <v>2803</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
@@ -1785,158 +1811,170 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" s="33" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A26" s="28">
+    <row r="26" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5">
+        <v>41520</v>
+      </c>
+      <c r="H26" s="5">
+        <v>42250</v>
+      </c>
+      <c r="I26" s="19">
+        <v>4672</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="1:21" s="33" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A27" s="28">
         <v>3.15</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B27" s="28">
         <v>9.75</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C27" s="28">
         <v>2</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D27" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29">
+      <c r="F27" s="28"/>
+      <c r="G27" s="29">
         <v>41536</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H27" s="29">
         <v>42266</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I27" s="30">
         <v>2559</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J27" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-    </row>
-    <row r="27" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A27" s="3">
+      <c r="K27" s="28"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+    </row>
+    <row r="28" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A28" s="3">
         <v>4.5</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>9.75</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="5">
+      <c r="F28" s="3"/>
+      <c r="G28" s="5">
         <v>41552</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H28" s="5">
         <v>42282</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I28" s="19">
         <v>3656</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21" s="49" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28" s="45">
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" s="49" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A29" s="45">
         <v>0.5</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B29" s="45">
         <v>9</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C29" s="45">
         <v>60</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D29" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E29" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46">
+      <c r="F29" s="45"/>
+      <c r="G29" s="46">
         <v>41650</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H29" s="46">
         <v>43476</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I29" s="41">
         <f>1125/3</f>
         <v>375</v>
       </c>
-      <c r="J28" s="47" t="s">
+      <c r="J29" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="45"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-    </row>
-    <row r="29" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <f>SUM(A22:A28)</f>
-        <v>23.65</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="8">
-        <f>SUM(I22:I27)</f>
-        <v>18859</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
@@ -1944,12 +1982,18 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <f>SUM(A23:A29)</f>
+        <v>23.65</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="8"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="8">
+        <f>SUM(I23:I28)</f>
+        <v>18859</v>
+      </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -1962,26 +2006,16 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A31" s="51">
-        <v>41849</v>
-      </c>
-      <c r="B31" s="8"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="1">
-        <f>SUM(F3:F29)</f>
-        <v>116</v>
-      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="16">
-        <f>SUM(I3:I27)</f>
-        <v>88746.666666666672</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -1995,16 +2029,26 @@
       <c r="U31" s="4"/>
     </row>
     <row r="32" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A32" s="3"/>
+      <c r="A32" s="51">
+        <v>41882</v>
+      </c>
       <c r="B32" s="8"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="1">
+        <f>SUM(F3:F30)</f>
+        <v>116.6</v>
+      </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="3"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="16">
+        <f>SUM(I3:I28)</f>
+        <v>89746.666666666672</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -2020,18 +2064,14 @@
     <row r="33" spans="1:21" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="8">
-        <v>17336</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -2046,14 +2086,19 @@
     </row>
     <row r="34" spans="1:21" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="3"/>
+      <c r="I34" s="8">
+        <v>17336</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -2068,19 +2113,13 @@
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35">
-        <v>400000</v>
-      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="17">
-        <f>I31+I33</f>
-        <v>106082.66666666667</v>
-      </c>
+      <c r="I35" s="20"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
@@ -2095,15 +2134,20 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36">
-        <v>285000</v>
+        <v>400000</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="17">
+        <f>I32+I34</f>
+        <v>107082.66666666667</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="4"/>
@@ -2120,8 +2164,11 @@
     <row r="37" spans="1:21" ht="12.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="14"/>
+      <c r="G37">
+        <v>285000</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="3"/>
@@ -2140,14 +2187,11 @@
     <row r="38" spans="1:21" ht="12.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="12"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="52"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -2161,22 +2205,14 @@
       <c r="U38" s="4"/>
     </row>
     <row r="39" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4">
-        <v>250000</v>
-      </c>
-      <c r="C39" s="4">
-        <f>SUM(I22:I27) * 12 + 4*I28</f>
-        <v>227808</v>
-      </c>
-      <c r="E39" s="4">
-        <f>B39-C39</f>
-        <v>22192</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="4"/>
       <c r="J39" s="52"/>
       <c r="K39" s="3"/>
@@ -2193,18 +2229,18 @@
     </row>
     <row r="40" spans="1:21" ht="12.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4">
         <v>250000</v>
       </c>
       <c r="C40" s="4">
-        <f>SUM(I16:I20) * 12</f>
-        <v>239040</v>
+        <f>SUM(I23:I28) * 12 + 4*I29</f>
+        <v>227808</v>
       </c>
       <c r="E40" s="4">
         <f>B40-C40</f>
-        <v>10960</v>
+        <v>22192</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2224,36 +2260,23 @@
     </row>
     <row r="41" spans="1:21" ht="12.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4">
         <v>250000</v>
       </c>
       <c r="C41" s="4">
-        <f>(29597 + 6488) + (3175 * 2 + 1258) + (3175 * 12) + (5354 * 3 + 1040) + (6075 + 10125 * 11) + (1331 + 3175 * 8)</f>
-        <v>243076</v>
-      </c>
-      <c r="D41" s="4"/>
+        <f>SUM(I17:I21) * 12</f>
+        <v>239040</v>
+      </c>
       <c r="E41" s="4">
-        <f t="shared" ref="E41:E43" si="0">B41-C41</f>
-        <v>6924</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41">
-        <f>G35*0.1/12</f>
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="H41" s="20">
-        <v>9</v>
-      </c>
-      <c r="I41" s="20">
-        <f>G41*H41</f>
-        <v>30000</v>
-      </c>
-      <c r="J41" s="50">
-        <f>C41+I41</f>
-        <v>273076</v>
-      </c>
+        <f>B41-C41</f>
+        <v>10960</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="52"/>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -2268,35 +2291,35 @@
     </row>
     <row r="42" spans="1:21" ht="12.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4">
         <v>250000</v>
       </c>
       <c r="C42" s="4">
-        <f>(4030 * 3) + (3425 * 9) + (10215 * 12) + (4830 * 12) + 567 + (2309 * 9)</f>
-        <v>244803</v>
+        <f>(29597 + 6488) + (3175 * 2 + 1258) + (3175 * 12) + (5354 * 3 + 1040) + (6075 + 10125 * 11) + (1331 + 3175 * 8)</f>
+        <v>243076</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4">
-        <f>B42-C42</f>
-        <v>5197</v>
+        <f t="shared" ref="E42:E44" si="0">B42-C42</f>
+        <v>6924</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42">
         <f>G36*0.1/12</f>
-        <v>2375</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="H42" s="20">
         <v>9</v>
       </c>
       <c r="I42" s="20">
         <f>G42*H42</f>
-        <v>21375</v>
+        <v>30000</v>
       </c>
       <c r="J42" s="50">
         <f>C42+I42</f>
-        <v>266178</v>
+        <v>273076</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="4"/>
@@ -2312,25 +2335,36 @@
     </row>
     <row r="43" spans="1:21" ht="12.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4">
         <v>250000</v>
       </c>
       <c r="C43" s="4">
-        <f>SUM(I3:I5) * 12</f>
-        <v>152564</v>
+        <f>(4030 * 3) + (3425 * 9) + (10215 * 12) + (4830 * 12) + 567 + (2309 * 9)</f>
+        <v>244803</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>97436</v>
+        <f>B43-C43</f>
+        <v>5197</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="52"/>
+      <c r="G43">
+        <f>G37*0.1/12</f>
+        <v>2375</v>
+      </c>
+      <c r="H43" s="20">
+        <v>9</v>
+      </c>
+      <c r="I43" s="20">
+        <f>G43*H43</f>
+        <v>21375</v>
+      </c>
+      <c r="J43" s="50">
+        <f>C43+I43</f>
+        <v>266178</v>
+      </c>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -2344,16 +2378,26 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4">
+        <v>250000</v>
+      </c>
+      <c r="C44" s="4">
+        <f>SUM(I3:I6) * 12</f>
+        <v>164564</v>
+      </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>85436</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="3"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="3"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -2459,7 +2503,7 @@
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A49" s="50"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2482,7 +2526,7 @@
       <c r="U49" s="4"/>
     </row>
     <row r="50" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A50" s="4"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3815,6 +3859,29 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
+    <row r="108" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
